--- a/nr-rm-jdv/ig/StructureDefinition-as-mailbox-mss.xlsx
+++ b/nr-rm-jdv/ig/StructureDefinition-as-mailbox-mss.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="177">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0-snapshot-4</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-14T08:29:56+00:00</t>
+    <t>2024-11-14T08:38:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -304,21 +304,14 @@
     <t>ContactPoint.extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -364,12 +357,6 @@
   </si>
   <si>
     <t>ContactPoint.extension.extension</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
   </si>
   <si>
     <t>ContactPoint.extension:emailType.url</t>
@@ -910,7 +897,7 @@
     <col min="1" max="1" width="46.90625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="31.8984375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="24.98828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
@@ -1293,11 +1280,11 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>78</v>
@@ -1312,17 +1299,15 @@
         <v>76</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="M4" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>98</v>
-      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
         <v>76</v>
@@ -1359,19 +1344,19 @@
         <v>76</v>
       </c>
       <c r="AB4" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AC4" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AD4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE4" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AC4" t="s" s="2">
+      <c r="AF4" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="AD4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>77</v>
@@ -1383,13 +1368,13 @@
         <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AM4" t="s" s="2">
         <v>76</v>
@@ -1397,20 +1382,20 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>87</v>
@@ -1425,13 +1410,13 @@
         <v>76</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1482,7 +1467,7 @@
         <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>77</v>
@@ -1494,7 +1479,7 @@
         <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>76</v>
@@ -1508,10 +1493,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1617,10 +1602,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1643,13 +1628,13 @@
         <v>76</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="L7" t="s" s="2">
-        <v>113</v>
-      </c>
       <c r="M7" t="s" s="2">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1688,19 +1673,19 @@
         <v>76</v>
       </c>
       <c r="AB7" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AC7" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AD7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE7" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AC7" t="s" s="2">
+      <c r="AF7" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="AD7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE7" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>77</v>
@@ -1712,7 +1697,7 @@
         <v>76</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>76</v>
@@ -1726,10 +1711,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1752,16 +1737,16 @@
         <v>76</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -1769,7 +1754,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>76</v>
@@ -1811,7 +1796,7 @@
         <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>87</v>
@@ -1829,7 +1814,7 @@
         <v>76</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>76</v>
@@ -1837,10 +1822,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1863,13 +1848,13 @@
         <v>76</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1881,7 +1866,7 @@
         <v>76</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="T9" t="s" s="2">
         <v>76</v>
@@ -1896,11 +1881,11 @@
         <v>76</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="Y9" s="2"/>
       <c r="Z9" t="s" s="2">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>76</v>
@@ -1918,7 +1903,7 @@
         <v>76</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
@@ -1930,13 +1915,13 @@
         <v>76</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>76</v>
@@ -1944,13 +1929,13 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>76</v>
@@ -1972,13 +1957,13 @@
         <v>76</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2029,7 +2014,7 @@
         <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
@@ -2041,7 +2026,7 @@
         <v>76</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>76</v>
@@ -2055,10 +2040,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2078,16 +2063,16 @@
         <v>76</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2099,7 +2084,7 @@
         <v>76</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="T11" t="s" s="2">
         <v>76</v>
@@ -2114,13 +2099,13 @@
         <v>76</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>76</v>
@@ -2138,7 +2123,7 @@
         <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -2147,27 +2132,27 @@
         <v>87</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2181,28 +2166,28 @@
         <v>87</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>88</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>76</v>
@@ -2251,7 +2236,7 @@
         <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -2263,24 +2248,24 @@
         <v>76</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2297,25 +2282,25 @@
         <v>76</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>76</v>
@@ -2340,13 +2325,13 @@
         <v>76</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>76</v>
@@ -2364,7 +2349,7 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -2376,24 +2361,24 @@
         <v>76</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2413,19 +2398,19 @@
         <v>76</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2475,7 +2460,7 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -2487,7 +2472,7 @@
         <v>76</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>92</v>
@@ -2501,10 +2486,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2524,16 +2509,16 @@
         <v>76</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2584,7 +2569,7 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -2596,16 +2581,16 @@
         <v>76</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
